--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,7 +1887,118 @@
         <v>10</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45521.98183673737</v>
+        <v>45521.98183673611</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Коммутатор</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.028</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>975</v>
+      </c>
+      <c r="E40" t="n">
+        <v>984</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.8.15.6</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10.8.15.15</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45581.50276196759</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Монитор</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1025</v>
+      </c>
+      <c r="E41" t="n">
+        <v>1034</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>10.8.99.0</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>10.8.99.9</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>45581.54614268518</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Монитор</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ПРГС.465000.012</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1035</v>
+      </c>
+      <c r="E42" t="n">
+        <v>1044</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>10.8.99.10</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>10.8.99.19</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+      <c r="I42" s="2" t="n">
+        <v>45581.54656073602</v>
       </c>
     </row>
   </sheetData>

--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I39"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1887,7 +1887,44 @@
         <v>10</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>45521.98183673737</v>
+        <v>45521.98183673611</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>2829</v>
+      </c>
+      <c r="E40" t="n">
+        <v>2883</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>10.8.187.0</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>10.8.187.54</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>55</v>
+      </c>
+      <c r="I40" s="2" t="n">
+        <v>45583.77440717899</v>
       </c>
     </row>
   </sheetData>

--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2287,11 +2287,137 @@
         <v>255</v>
       </c>
       <c r="I44" s="2" t="n">
-        <v>45587.81782220533</v>
+        <v>45587.81782221065</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
           <t>close</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>3855</v>
+      </c>
+      <c r="E45" t="n">
+        <v>3856</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>10.8.178.0</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>10.8.178.1</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+      <c r="I45" s="2" t="n">
+        <v>45588.47767050926</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>3857</v>
+      </c>
+      <c r="E46" t="n">
+        <v>3866</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>10.8.178.2</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>10.8.178.11</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>45588.52981231482</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.181</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>3867</v>
+      </c>
+      <c r="E47" t="n">
+        <v>3944</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>10.8.178.12</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>10.8.178.89</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>78</v>
+      </c>
+      <c r="I47" s="2" t="n">
+        <v>45588.53060994763</v>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>open</t>
         </is>
       </c>
     </row>

--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,35 +455,40 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>equipment_version</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>first_serial_number</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>last_serial_number</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>first_IP</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>last_IP</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>stickers_count</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>order_date</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ab_label</t>
         </is>
@@ -503,29 +508,34 @@
           <t>ТТСК.465000.180</t>
         </is>
       </c>
-      <c r="D2" t="n">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
         <v>2317</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>2572</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>10.8.185.0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>10.8.185.255</t>
         </is>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>256</v>
       </c>
-      <c r="I2" s="2" t="n">
+      <c r="J2" s="2" t="n">
         <v>45058</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -545,29 +555,34 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>256</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>10.8.11.0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>10.8.11.255</t>
         </is>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>256</v>
       </c>
-      <c r="I3" s="2" t="n">
+      <c r="J3" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -587,29 +602,34 @@
           <t>ПРГС.465000.012</t>
         </is>
       </c>
-      <c r="D4" t="n">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
         <v>1</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>256</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>10.8.95.0</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>10.8.95.255</t>
         </is>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>256</v>
       </c>
-      <c r="I4" s="2" t="n">
+      <c r="J4" s="2" t="n">
         <v>45361</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -629,29 +649,34 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
         <v>201</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>456</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>10.8.12.0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>10.8.12.255</t>
         </is>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>256</v>
       </c>
-      <c r="I5" s="2" t="n">
+      <c r="J5" s="2" t="n">
         <v>45369</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -671,29 +696,34 @@
           <t>ТТСК.465000.125</t>
         </is>
       </c>
-      <c r="D6" t="n">
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
         <v>6912</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7167</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>10.8.127.0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>10.8.127.255</t>
         </is>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>256</v>
       </c>
-      <c r="I6" s="2" t="n">
+      <c r="J6" s="2" t="n">
         <v>45392</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -713,29 +743,34 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
-      <c r="D7" t="n">
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
         <v>457</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>712</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>10.8.13.0</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>10.8.13.255</t>
         </is>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>256</v>
       </c>
-      <c r="I7" s="2" t="n">
+      <c r="J7" s="2" t="n">
         <v>45406</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -755,29 +790,34 @@
           <t>ПРГС.465000.028</t>
         </is>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
         <v>713</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>968</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>10.8.14.0</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>10.8.14.255</t>
         </is>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>256</v>
       </c>
-      <c r="I8" s="2" t="n">
+      <c r="J8" s="2" t="n">
         <v>45454</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -797,29 +837,34 @@
           <t>ПРГС.465000.024</t>
         </is>
       </c>
-      <c r="D9" t="n">
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>10</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>10.7.10.1</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>10.7.10.10</t>
         </is>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>10</v>
       </c>
-      <c r="I9" s="2" t="n">
+      <c r="J9" s="2" t="n">
         <v>45605.85085251158</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -839,29 +884,34 @@
           <t>ПРГС.465000.024</t>
         </is>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>255</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>10.7.10.11</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>10.7.10.255</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>245</v>
       </c>
-      <c r="I10" s="2" t="n">
+      <c r="J10" s="2" t="n">
         <v>45605.86192837963</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -881,29 +931,34 @@
           <t>для зяблика</t>
         </is>
       </c>
-      <c r="D11" t="n">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>255</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>10.8.23.1</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>10.8.23.255</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>255</v>
       </c>
-      <c r="I11" s="2" t="n">
+      <c r="J11" s="2" t="n">
         <v>45605.87740765046</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -923,29 +978,34 @@
           <t>для зяблика</t>
         </is>
       </c>
-      <c r="D12" t="n">
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
         <v>256</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>510</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>10.7.22.1</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>10.7.22.255</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>255</v>
       </c>
-      <c r="I12" s="2" t="n">
+      <c r="J12" s="2" t="n">
         <v>45605.87764372685</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>close</t>
         </is>
@@ -965,29 +1025,34 @@
           <t>для зяблика</t>
         </is>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
         <v>511</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>520</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>10.5.11.1</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>10.5.11.10</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>10</v>
       </c>
-      <c r="I13" s="2" t="n">
+      <c r="J13" s="2" t="n">
         <v>45605.87786356481</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>open</t>
         </is>
@@ -1007,29 +1072,214 @@
           <t>ТТСК.465000.180</t>
         </is>
       </c>
-      <c r="D14" t="n">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
         <v>2573</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2872</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>10.8.186.0</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>10.8.187.43</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>300</v>
       </c>
-      <c r="I14" s="2" t="n">
-        <v>45608.83874772953</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="J14" s="2" t="n">
+        <v>45608.83874773148</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>20</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1.1.1</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>1.1.1.20</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>20</v>
+      </c>
+      <c r="J15" s="2" t="n">
+        <v>45609.57227747685</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>20</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.18.81.1</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>1.18.81.20</t>
+        </is>
+      </c>
+      <c r="I16" t="n">
+        <v>20</v>
+      </c>
+      <c r="J16" s="2" t="n">
+        <v>45609.57336158565</v>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>2873</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2892</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>10.8.187.44</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>10.8.187.63</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>20</v>
+      </c>
+      <c r="J17" s="2" t="n">
+        <v>45609.5748544676</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>33</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>88.8.8.1</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>88.8.8.33</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>33</v>
+      </c>
+      <c r="J18" s="2" t="n">
+        <v>45609.58746490871</v>
+      </c>
+      <c r="K18" t="inlineStr">
         <is>
           <t>open</t>
         </is>

--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,9 +1277,99 @@
         <v>33</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45609.58746490871</v>
+        <v>45609.58746490741</v>
       </c>
       <c r="K18" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>53</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.18.81.21</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.18.81.53</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45609.76920278935</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>34</v>
+      </c>
+      <c r="F20" t="n">
+        <v>133</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>88.8.8.34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>88.8.8.133</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45609.77399556093</v>
+      </c>
+      <c r="K20" t="inlineStr">
         <is>
           <t>open</t>
         </is>

--- a/IP_calculation_Pro/Main_file.xlsx
+++ b/IP_calculation_Pro/Main_file.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1277,9 +1277,193 @@
         <v>33</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>45609.58746490871</v>
+        <v>45609.58746490741</v>
       </c>
       <c r="K18" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Замок</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>на скале</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>21</v>
+      </c>
+      <c r="F19" t="n">
+        <v>53</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.18.81.21</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.18.81.53</t>
+        </is>
+      </c>
+      <c r="I19" t="n">
+        <v>33</v>
+      </c>
+      <c r="J19" s="2" t="n">
+        <v>45609.76920278935</v>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Шапка</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>на воре</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>34</v>
+      </c>
+      <c r="F20" t="n">
+        <v>133</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>88.8.8.34</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>88.8.8.133</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>100</v>
+      </c>
+      <c r="J20" s="2" t="n">
+        <v>45609.77399555556</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Принцесса</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>на горошине</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>единственная</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>21</v>
+      </c>
+      <c r="F21" t="n">
+        <v>59</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.1.1.21</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>1.1.1.59</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>39</v>
+      </c>
+      <c r="J21" s="2" t="n">
+        <v>45610.90392247685</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>open</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Блок управления камерами</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ТТСК.465000.180</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>-01</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>2893</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3292</v>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>10.8.187.64</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>10.8.188.207</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>400</v>
+      </c>
+      <c r="J22" s="2" t="n">
+        <v>45610.92075966095</v>
+      </c>
+      <c r="K22" t="inlineStr">
         <is>
           <t>open</t>
         </is>
